--- a/Files/data.xlsx
+++ b/Files/data.xlsx
@@ -14,13 +14,15 @@
     <sheet name="addnewservice" sheetId="5" r:id="rId5"/>
     <sheet name="account" sheetId="6" r:id="rId6"/>
     <sheet name="hotel" sheetId="7" r:id="rId7"/>
+    <sheet name="addnewuser" sheetId="8" r:id="rId8"/>
+    <sheet name="addnewtax" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>hotel</t>
   </si>
@@ -52,7 +54,19 @@
     <t>Hotel services at the highest levels2</t>
   </si>
   <si>
-    <t>خدمات فندقية على اعلى المستويات2</t>
+    <t>test</t>
+  </si>
+  <si>
+    <t>utest</t>
+  </si>
+  <si>
+    <t>auto@test.com</t>
+  </si>
+  <si>
+    <t>اوتومايشن</t>
+  </si>
+  <si>
+    <t>automation</t>
   </si>
 </sst>
 </file>
@@ -60,10 +74,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -83,6 +97,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -90,13 +133,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -104,10 +140,26 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -119,16 +171,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,68 +219,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,14 +229,6 @@
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -227,19 +241,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -251,25 +409,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,133 +421,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,35 +437,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -475,7 +463,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,21 +498,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -518,10 +506,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -540,127 +554,127 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1163,24 +1177,97 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="34.4285714285714" customWidth="1"/>
     <col min="2" max="2" width="51.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="12.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="21.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="20.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="23.5714285714286" customWidth="1"/>
+    <col min="6" max="6" width="21.4285714285714" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D1" r:id="rId1" display="test@123"/>
+    <hyperlink ref="E1" r:id="rId1" display="test@123"/>
+    <hyperlink ref="C1" r:id="rId2" display="auto@test.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="13.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Files/data.xlsx
+++ b/Files/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="9795" firstSheet="2" activeTab="6"/>
+    <workbookView windowWidth="24000" windowHeight="9795" firstSheet="4" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="vailduserandpassword" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,15 @@
     <sheet name="hotel" sheetId="7" r:id="rId7"/>
     <sheet name="addnewuser" sheetId="8" r:id="rId8"/>
     <sheet name="addnewtax" sheetId="9" r:id="rId9"/>
+    <sheet name="addnewtaxgroup" sheetId="10" r:id="rId10"/>
+    <sheet name="addnewroom" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>hotel</t>
   </si>
@@ -67,6 +69,15 @@
   </si>
   <si>
     <t>automation</t>
+  </si>
+  <si>
+    <t>اختبار اوتوميشن</t>
+  </si>
+  <si>
+    <t>test auto</t>
+  </si>
+  <si>
+    <t>n123</t>
   </si>
 </sst>
 </file>
@@ -74,8 +85,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -119,21 +130,76 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,31 +215,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,52 +238,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,187 +252,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,6 +451,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -468,17 +488,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,11 +514,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,21 +543,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -554,37 +565,37 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -593,88 +604,88 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1032,6 +1043,66 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="19.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="19.1428571428571" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
@@ -1179,8 +1250,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1253,7 +1324,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="A1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
